--- a/topo/cernet2_added.xlsx
+++ b/topo/cernet2_added.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151:I242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,11 +2047,2044 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>40.009</v>
+      </c>
+      <c r="D59" s="1">
+        <v>39.987000000000002</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2</v>
+      </c>
+      <c r="B67" s="1">
+        <v>7</v>
+      </c>
+      <c r="I67" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8</v>
+      </c>
+      <c r="I68" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9</v>
+      </c>
+      <c r="I69" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>11</v>
+      </c>
+      <c r="I71" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>15</v>
+      </c>
+      <c r="I72" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>20</v>
+      </c>
+      <c r="I73" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="I75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>7</v>
+      </c>
+      <c r="I76" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8</v>
+      </c>
+      <c r="I77" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9</v>
+      </c>
+      <c r="I78" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1">
+        <v>11</v>
+      </c>
+      <c r="I80" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>5</v>
+      </c>
+      <c r="B81" s="1">
+        <v>12</v>
+      </c>
+      <c r="I81" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>5</v>
+      </c>
+      <c r="B82" s="1">
+        <v>13</v>
+      </c>
+      <c r="I82" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>15</v>
+      </c>
+      <c r="I84" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>16</v>
+      </c>
+      <c r="I85" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="I86" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="I87" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="I88" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1">
+        <v>10</v>
+      </c>
+      <c r="I89" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1">
+        <v>12</v>
+      </c>
+      <c r="I90" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <v>13</v>
+      </c>
+      <c r="I91" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1">
+        <v>11</v>
+      </c>
+      <c r="I93" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1">
+        <v>12</v>
+      </c>
+      <c r="I94" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1">
+        <v>13</v>
+      </c>
+      <c r="I95" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1">
+        <v>14</v>
+      </c>
+      <c r="I96" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1">
+        <v>15</v>
+      </c>
+      <c r="I97" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>7</v>
+      </c>
+      <c r="B98" s="1">
+        <v>16</v>
+      </c>
+      <c r="I98" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>20</v>
+      </c>
+      <c r="I99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>21</v>
+      </c>
+      <c r="I100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>22</v>
+      </c>
+      <c r="I101" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
+        <v>23</v>
+      </c>
+      <c r="I102" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
+        <v>24</v>
+      </c>
+      <c r="I103" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1">
+        <v>10</v>
+      </c>
+      <c r="I104" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1">
+        <v>11</v>
+      </c>
+      <c r="I105" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1">
+        <v>12</v>
+      </c>
+      <c r="I106" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
+        <v>13</v>
+      </c>
+      <c r="I107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>14</v>
+      </c>
+      <c r="I108" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>9</v>
+      </c>
+      <c r="B109" s="1">
+        <v>15</v>
+      </c>
+      <c r="I109" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
+        <v>13</v>
+      </c>
+      <c r="I111" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
+        <v>14</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>10</v>
+      </c>
+      <c r="B113" s="1">
+        <v>15</v>
+      </c>
+      <c r="I113" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1">
+        <v>16</v>
+      </c>
+      <c r="I114" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>10</v>
+      </c>
+      <c r="B115" s="1">
+        <v>17</v>
+      </c>
+      <c r="I115" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1">
+        <v>18</v>
+      </c>
+      <c r="I116" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1">
+        <v>7</v>
+      </c>
+      <c r="I117" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1">
+        <v>21</v>
+      </c>
+      <c r="I118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1">
+        <v>22</v>
+      </c>
+      <c r="I119" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1">
+        <v>23</v>
+      </c>
+      <c r="I120" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>11</v>
+      </c>
+      <c r="B121" s="1">
+        <v>24</v>
+      </c>
+      <c r="I121" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>11</v>
+      </c>
+      <c r="B122" s="1">
+        <v>25</v>
+      </c>
+      <c r="I122" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>14</v>
+      </c>
+      <c r="B123" s="1">
+        <v>16</v>
+      </c>
+      <c r="I123" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>14</v>
+      </c>
+      <c r="B124" s="1">
+        <v>17</v>
+      </c>
+      <c r="I124" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>14</v>
+      </c>
+      <c r="B125" s="1">
+        <v>18</v>
+      </c>
+      <c r="I125" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>14</v>
+      </c>
+      <c r="B126" s="1">
+        <v>19</v>
+      </c>
+      <c r="I126" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>14</v>
+      </c>
+      <c r="B127" s="1">
+        <v>20</v>
+      </c>
+      <c r="I127" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>14</v>
+      </c>
+      <c r="B128" s="1">
+        <v>21</v>
+      </c>
+      <c r="I128" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>14</v>
+      </c>
+      <c r="B129" s="1">
+        <v>22</v>
+      </c>
+      <c r="I129" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>24</v>
+      </c>
+      <c r="B130" s="1">
+        <v>13</v>
+      </c>
+      <c r="I130" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1">
+        <v>14</v>
+      </c>
+      <c r="I131" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>24</v>
+      </c>
+      <c r="B132" s="1">
+        <v>15</v>
+      </c>
+      <c r="I132" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>24</v>
+      </c>
+      <c r="B133" s="1">
+        <v>16</v>
+      </c>
+      <c r="I133" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>24</v>
+      </c>
+      <c r="B134" s="1">
+        <v>17</v>
+      </c>
+      <c r="I134" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>24</v>
+      </c>
+      <c r="B135" s="1">
+        <v>18</v>
+      </c>
+      <c r="I135" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>24</v>
+      </c>
+      <c r="B136" s="1">
+        <v>19</v>
+      </c>
+      <c r="I136" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>24</v>
+      </c>
+      <c r="B137" s="1">
+        <v>20</v>
+      </c>
+      <c r="I137" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>24</v>
+      </c>
+      <c r="B138" s="1">
+        <v>21</v>
+      </c>
+      <c r="I138" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>17</v>
+      </c>
+      <c r="B139" s="1">
+        <v>19</v>
+      </c>
+      <c r="I139" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>17</v>
+      </c>
+      <c r="B140" s="1">
+        <v>20</v>
+      </c>
+      <c r="I140" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>17</v>
+      </c>
+      <c r="B141" s="1">
+        <v>21</v>
+      </c>
+      <c r="I141" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>17</v>
+      </c>
+      <c r="B142" s="1">
+        <v>22</v>
+      </c>
+      <c r="I142" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>17</v>
+      </c>
+      <c r="B143" s="1">
+        <v>23</v>
+      </c>
+      <c r="I143" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>17</v>
+      </c>
+      <c r="B144" s="1">
+        <v>24</v>
+      </c>
+      <c r="I144" s="1">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>18</v>
+      </c>
+      <c r="B145" s="1">
+        <v>20</v>
+      </c>
+      <c r="I145" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>18</v>
+      </c>
+      <c r="B146" s="1">
+        <v>21</v>
+      </c>
+      <c r="I146" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>18</v>
+      </c>
+      <c r="B147" s="1">
+        <v>22</v>
+      </c>
+      <c r="I147" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>18</v>
+      </c>
+      <c r="B148" s="1">
+        <v>23</v>
+      </c>
+      <c r="I148" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>18</v>
+      </c>
+      <c r="B149" s="1">
+        <v>24</v>
+      </c>
+      <c r="I149" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>18</v>
+      </c>
+      <c r="B150" s="1">
+        <v>25</v>
+      </c>
+      <c r="I150" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>3</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>8</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>10</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>11</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>6</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>5</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2</v>
+      </c>
+      <c r="I157" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>6</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+      <c r="I158" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>7</v>
+      </c>
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2</v>
+      </c>
+      <c r="I160" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>9</v>
+      </c>
+      <c r="B161" s="1">
+        <v>3</v>
+      </c>
+      <c r="I161" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>10</v>
+      </c>
+      <c r="B162" s="1">
+        <v>3</v>
+      </c>
+      <c r="I162" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>11</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3</v>
+      </c>
+      <c r="I163" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3</v>
+      </c>
+      <c r="I164" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>20</v>
+      </c>
+      <c r="B165" s="1">
+        <v>3</v>
+      </c>
+      <c r="I165" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>5</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+      <c r="I166" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>6</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4</v>
+      </c>
+      <c r="I167" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>7</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4</v>
+      </c>
+      <c r="I168" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>8</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+      <c r="I169" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>9</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+      <c r="I170" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>10</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5</v>
+      </c>
+      <c r="I171" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>11</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5</v>
+      </c>
+      <c r="I172" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>12</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5</v>
+      </c>
+      <c r="I173" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1">
+        <v>5</v>
+      </c>
+      <c r="I174" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>14</v>
+      </c>
+      <c r="B175" s="1">
+        <v>5</v>
+      </c>
+      <c r="I175" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>15</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="I176" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>16</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+      <c r="I177" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>7</v>
+      </c>
+      <c r="B178" s="1">
+        <v>6</v>
+      </c>
+      <c r="I178" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>8</v>
+      </c>
+      <c r="B179" s="1">
+        <v>6</v>
+      </c>
+      <c r="I179" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>9</v>
+      </c>
+      <c r="B180" s="1">
+        <v>6</v>
+      </c>
+      <c r="I180" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>10</v>
+      </c>
+      <c r="B181" s="1">
+        <v>6</v>
+      </c>
+      <c r="I181" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>12</v>
+      </c>
+      <c r="B182" s="1">
+        <v>6</v>
+      </c>
+      <c r="I182" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>13</v>
+      </c>
+      <c r="B183" s="1">
+        <v>6</v>
+      </c>
+      <c r="I183" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>14</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6</v>
+      </c>
+      <c r="I184" s="1">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>11</v>
+      </c>
+      <c r="B185" s="1">
+        <v>7</v>
+      </c>
+      <c r="I185" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>12</v>
+      </c>
+      <c r="B186" s="1">
+        <v>7</v>
+      </c>
+      <c r="I186" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>13</v>
+      </c>
+      <c r="B187" s="1">
+        <v>7</v>
+      </c>
+      <c r="I187" s="1">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>14</v>
+      </c>
+      <c r="B188" s="1">
+        <v>7</v>
+      </c>
+      <c r="I188" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>15</v>
+      </c>
+      <c r="B189" s="1">
+        <v>7</v>
+      </c>
+      <c r="I189" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>16</v>
+      </c>
+      <c r="B190" s="1">
+        <v>7</v>
+      </c>
+      <c r="I190" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>20</v>
+      </c>
+      <c r="B191" s="1">
+        <v>8</v>
+      </c>
+      <c r="I191" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>21</v>
+      </c>
+      <c r="B192" s="1">
+        <v>8</v>
+      </c>
+      <c r="I192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>22</v>
+      </c>
+      <c r="B193" s="1">
+        <v>8</v>
+      </c>
+      <c r="I193" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>23</v>
+      </c>
+      <c r="B194" s="1">
+        <v>8</v>
+      </c>
+      <c r="I194" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>24</v>
+      </c>
+      <c r="B195" s="1">
+        <v>8</v>
+      </c>
+      <c r="I195" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>10</v>
+      </c>
+      <c r="B196" s="1">
+        <v>9</v>
+      </c>
+      <c r="I196" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>11</v>
+      </c>
+      <c r="B197" s="1">
+        <v>9</v>
+      </c>
+      <c r="I197" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>12</v>
+      </c>
+      <c r="B198" s="1">
+        <v>9</v>
+      </c>
+      <c r="I198" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>13</v>
+      </c>
+      <c r="B199" s="1">
+        <v>9</v>
+      </c>
+      <c r="I199" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>14</v>
+      </c>
+      <c r="B200" s="1">
+        <v>9</v>
+      </c>
+      <c r="I200" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>15</v>
+      </c>
+      <c r="B201" s="1">
+        <v>9</v>
+      </c>
+      <c r="I201" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1">
+        <v>9</v>
+      </c>
+      <c r="I202" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1">
+        <v>10</v>
+      </c>
+      <c r="I203" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>14</v>
+      </c>
+      <c r="B204" s="1">
+        <v>10</v>
+      </c>
+      <c r="I204" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>15</v>
+      </c>
+      <c r="B205" s="1">
+        <v>10</v>
+      </c>
+      <c r="I205" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>16</v>
+      </c>
+      <c r="B206" s="1">
+        <v>10</v>
+      </c>
+      <c r="I206" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>17</v>
+      </c>
+      <c r="B207" s="1">
+        <v>10</v>
+      </c>
+      <c r="I207" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>10</v>
+      </c>
+      <c r="I208" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>7</v>
+      </c>
+      <c r="B209" s="1">
+        <v>11</v>
+      </c>
+      <c r="I209" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>21</v>
+      </c>
+      <c r="B210" s="1">
+        <v>11</v>
+      </c>
+      <c r="I210" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>22</v>
+      </c>
+      <c r="B211" s="1">
+        <v>11</v>
+      </c>
+      <c r="I211" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>23</v>
+      </c>
+      <c r="B212" s="1">
+        <v>11</v>
+      </c>
+      <c r="I212" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>24</v>
+      </c>
+      <c r="B213" s="1">
+        <v>11</v>
+      </c>
+      <c r="I213" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>25</v>
+      </c>
+      <c r="B214" s="1">
+        <v>11</v>
+      </c>
+      <c r="I214" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>16</v>
+      </c>
+      <c r="B215" s="1">
+        <v>14</v>
+      </c>
+      <c r="I215" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>17</v>
+      </c>
+      <c r="B216" s="1">
+        <v>14</v>
+      </c>
+      <c r="I216" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>18</v>
+      </c>
+      <c r="B217" s="1">
+        <v>14</v>
+      </c>
+      <c r="I217" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>19</v>
+      </c>
+      <c r="B218" s="1">
+        <v>14</v>
+      </c>
+      <c r="I218" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>20</v>
+      </c>
+      <c r="B219" s="1">
+        <v>14</v>
+      </c>
+      <c r="I219" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>21</v>
+      </c>
+      <c r="B220" s="1">
+        <v>14</v>
+      </c>
+      <c r="I220" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>22</v>
+      </c>
+      <c r="B221" s="1">
+        <v>14</v>
+      </c>
+      <c r="I221" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1">
+        <v>24</v>
+      </c>
+      <c r="I222" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>14</v>
+      </c>
+      <c r="B223" s="1">
+        <v>24</v>
+      </c>
+      <c r="I223" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>15</v>
+      </c>
+      <c r="B224" s="1">
+        <v>24</v>
+      </c>
+      <c r="I224" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>16</v>
+      </c>
+      <c r="B225" s="1">
+        <v>24</v>
+      </c>
+      <c r="I225" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>17</v>
+      </c>
+      <c r="B226" s="1">
+        <v>24</v>
+      </c>
+      <c r="I226" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>18</v>
+      </c>
+      <c r="B227" s="1">
+        <v>24</v>
+      </c>
+      <c r="I227" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>19</v>
+      </c>
+      <c r="B228" s="1">
+        <v>24</v>
+      </c>
+      <c r="I228" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>20</v>
+      </c>
+      <c r="B229" s="1">
+        <v>24</v>
+      </c>
+      <c r="I229" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>21</v>
+      </c>
+      <c r="B230" s="1">
+        <v>24</v>
+      </c>
+      <c r="I230" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>19</v>
+      </c>
+      <c r="B231" s="1">
+        <v>17</v>
+      </c>
+      <c r="I231" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>20</v>
+      </c>
+      <c r="B232" s="1">
+        <v>17</v>
+      </c>
+      <c r="I232" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>21</v>
+      </c>
+      <c r="B233" s="1">
+        <v>17</v>
+      </c>
+      <c r="I233" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>22</v>
+      </c>
+      <c r="B234" s="1">
+        <v>17</v>
+      </c>
+      <c r="I234" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1">
+        <v>17</v>
+      </c>
+      <c r="I235" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>24</v>
+      </c>
+      <c r="B236" s="1">
+        <v>17</v>
+      </c>
+      <c r="I236" s="1">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>20</v>
+      </c>
+      <c r="B237" s="1">
+        <v>18</v>
+      </c>
+      <c r="I237" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>21</v>
+      </c>
+      <c r="B238" s="1">
+        <v>18</v>
+      </c>
+      <c r="I238" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>22</v>
+      </c>
+      <c r="B239" s="1">
+        <v>18</v>
+      </c>
+      <c r="I239" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>23</v>
+      </c>
+      <c r="B240" s="1">
+        <v>18</v>
+      </c>
+      <c r="I240" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>24</v>
+      </c>
+      <c r="B241" s="1">
+        <v>18</v>
+      </c>
+      <c r="I241" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>25</v>
+      </c>
+      <c r="B242" s="1">
+        <v>18</v>
+      </c>
+      <c r="I242" s="1">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
